--- a/scripts_on_ubuntu/Alchemy/week 2/week 2.xlsx
+++ b/scripts_on_ubuntu/Alchemy/week 2/week 2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="587">
   <si>
     <t xml:space="preserve">钱包地址</t>
   </si>
@@ -40,11 +40,10 @@
     <t xml:space="preserve">点击了激活active?</t>
   </si>
   <si>
-    <t xml:space="preserve">获取alchemy的项目https,
-将来填入小狐狸</t>
-  </si>
-  <si>
-    <t xml:space="preserve">获取alchemy的项目API</t>
+    <t xml:space="preserve">goerli的https</t>
+  </si>
+  <si>
+    <t xml:space="preserve">goerli的API</t>
   </si>
   <si>
     <t xml:space="preserve">完整 IPFS Json_CID</t>
@@ -111,9 +110,6 @@
     <t xml:space="preserve">2e)Z5QCaU%</t>
   </si>
   <si>
-    <t xml:space="preserve">https://eth-rinkeby.alchemyapi.io/v2/zwrMdWK5mxQHy8dYoiO4Seg_FQ3i95or</t>
-  </si>
-  <si>
     <t xml:space="preserve">QmZw9fZpJvArXjYsbRksaJHJZGvnHsAJkkGnk7EosKu9bJ</t>
   </si>
   <si>
@@ -123,9 +119,6 @@
     <t xml:space="preserve">sHtMKn1d_2</t>
   </si>
   <si>
-    <t xml:space="preserve">https://eth-rinkeby.alchemyapi.io/v2/6qcLDO7APBwB_9eEXF0-QCCNRJqTaR-_</t>
-  </si>
-  <si>
     <t xml:space="preserve">QmSHdJ42swY6BK31CtbPcjMYZgVtG2X7WmjdpVQ1DAB4uW</t>
   </si>
   <si>
@@ -153,9 +146,6 @@
     <t xml:space="preserve">+8cgQPlw*A</t>
   </si>
   <si>
-    <t xml:space="preserve">https://eth-rinkeby.alchemyapi.io/v2/IhQ2gl-ANUQmfTqn51z6K7VJWhs9Nczt</t>
-  </si>
-  <si>
     <t xml:space="preserve">leonarsdonovan@gmail.com</t>
   </si>
   <si>
@@ -168,9 +158,6 @@
     <t xml:space="preserve">%w3w4Y#f4I</t>
   </si>
   <si>
-    <t xml:space="preserve">https://eth-rinkeby.alchemyapi.io/v2/vtFe7KQ3EL6ScaNH1qGaqTico69wNLq7</t>
-  </si>
-  <si>
     <t xml:space="preserve">macduffm99@gmail.com</t>
   </si>
   <si>
@@ -201,9 +188,6 @@
     <t xml:space="preserve">sxm2QVj@$%</t>
   </si>
   <si>
-    <t xml:space="preserve">https://eth-rinkeby.alchemyapi.io/v2/MyzPmXS95XaKlxQS6FzA_KrcS_sI2EGb</t>
-  </si>
-  <si>
     <t xml:space="preserve">juliawinter964@gmail.com</t>
   </si>
   <si>
@@ -225,12 +209,6 @@
     <t xml:space="preserve">#sHL*HuB&amp;2</t>
   </si>
   <si>
-    <t xml:space="preserve">https://eth-rinkeby.alchemyapi.io/v2/9rJ-o-nN-F40QSRx684ZTW0PqWGWVVP_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9rJ-o-nN-F40QSRx684ZTW0PqWGWVVP_</t>
-  </si>
-  <si>
     <t xml:space="preserve">ipfs://QmYxSU7rxtAnVxYSh77WVmJox2j2cshQHtngVo7bXJW2tE</t>
   </si>
   <si>
@@ -252,9 +230,6 @@
     <t xml:space="preserve">vgWvDb!L&amp;8</t>
   </si>
   <si>
-    <t xml:space="preserve">https://eth-rinkeby.alchemyapi.io/v2/dB0WkyqLYSejLIzuSFyy3BHkvQFIWzJ6</t>
-  </si>
-  <si>
     <t xml:space="preserve">ipfs://Qmd6vipZgxtJCdKQ4kUVRGcJGQj4fRNZ9nGmpXNpkcZMEZ</t>
   </si>
   <si>
@@ -270,12 +245,6 @@
     <t xml:space="preserve">%#+8E*V!xi</t>
   </si>
   <si>
-    <t xml:space="preserve">https://eth-rinkeby.alchemyapi.io/v2/0RLYJ1Hpw6D0Tg3bmHt2wxeSKjJcUcEb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0RLYJ1Hpw6D0Tg3bmHt2wxeSKjJcUcEb</t>
-  </si>
-  <si>
     <t xml:space="preserve">ipfs://QmXuk6esWMEXB2qf7EgCpNPwxrgSzmYTW8EFodTuAXiLFV</t>
   </si>
   <si>
@@ -294,12 +263,6 @@
     <t xml:space="preserve">Jw1GJl!U$$</t>
   </si>
   <si>
-    <t xml:space="preserve">https://eth-rinkeby.alchemyapi.io/v2/ZR7CuO2PPz50GGEpiHhzF_40ZHFzFwhq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZR7CuO2PPz50GGEpiHhzF_40ZHFzFwhq</t>
-  </si>
-  <si>
     <t xml:space="preserve">ipfs://QmUuvUrRgjACixdWs2FWsMa3AZc9K8fp2P3VdmSjzuZbvA</t>
   </si>
   <si>
@@ -315,12 +278,6 @@
     <t xml:space="preserve">A6ZMYDMq!s</t>
   </si>
   <si>
-    <t xml:space="preserve">https://eth-rinkeby.alchemyapi.io/v2/FbfRUaWHlXtPq8pkk8hdmcVi59i_bGwn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FbfRUaWHlXtPq8pkk8hdmcVi59i_bGwn</t>
-  </si>
-  <si>
     <t xml:space="preserve">ipfs://QmYFMGUWqHYwwW1GLPiy6T7cAs2Qx9DVe12GgMVhwZK8Uf</t>
   </si>
   <si>
@@ -336,12 +293,6 @@
     <t xml:space="preserve">(Hh55ZTmw5</t>
   </si>
   <si>
-    <t xml:space="preserve">https://eth-rinkeby.alchemyapi.io/v2/uNxD9TI9QVFX7EoW05PlvT8CNIpqB1ja</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uNxD9TI9QVFX7EoW05PlvT8CNIpqB1ja</t>
-  </si>
-  <si>
     <t xml:space="preserve">ipfs://QmVZ9wTfL2wmVjcfz5SYKaGgFpqTLGddrMZPAXszmeShry</t>
   </si>
   <si>
@@ -357,12 +308,6 @@
     <t xml:space="preserve">H!8o2LtCzL</t>
   </si>
   <si>
-    <t xml:space="preserve">https://eth-rinkeby.alchemyapi.io/v2/zDvo3r-nCbHkw5GIVQaPKOdQ7h7Mdowv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zDvo3r-nCbHkw5GIVQaPKOdQ7h7Mdowv</t>
-  </si>
-  <si>
     <t xml:space="preserve">ipfs://QmSLrBwxSWv8B5yUu8WAp6qArenwgaQsUAGFpc8RTTFAnv</t>
   </si>
   <si>
@@ -378,12 +323,6 @@
     <t xml:space="preserve">R*8Cr6ttvH</t>
   </si>
   <si>
-    <t xml:space="preserve">https://eth-rinkeby.alchemyapi.io/v2/0OAIdKICGXqh65oNfK70xUt-aR7TARKE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0OAIdKICGXqh65oNfK70xUt-aR7TARKE</t>
-  </si>
-  <si>
     <t xml:space="preserve">ipfs://QmWnRxBrE3Fv3hErcnedGeFLJsoqv7MHaGZQmS4JokSAuB</t>
   </si>
   <si>
@@ -399,12 +338,6 @@
     <t xml:space="preserve">24TdrHBh%R</t>
   </si>
   <si>
-    <t xml:space="preserve">https://eth-rinkeby.alchemyapi.io/v2/e5Vo_N-lE00tPDqYFUa6Ck8zFRYiWqmq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e5Vo_N-lE00tPDqYFUa6Ck8zFRYiWqmq</t>
-  </si>
-  <si>
     <t xml:space="preserve">ipfs://QmRTA9VNnfghjb1viWER3U5cghK9RZwmjvwcpzKTkMQZyh</t>
   </si>
   <si>
@@ -420,12 +353,6 @@
     <t xml:space="preserve">W5*+1RqXMV</t>
   </si>
   <si>
-    <t xml:space="preserve">https://eth-rinkeby.alchemyapi.io/v2/cW_OyB5I90XSxwq6eeQFTS4kiKBioC1B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cW_OyB5I90XSxwq6eeQFTS4kiKBioC1B</t>
-  </si>
-  <si>
     <t xml:space="preserve">ipfs://QmYXTpye4wWjHx2QG9EuE3tx3yj6fKzeEay9yhZfPPoYxL</t>
   </si>
   <si>
@@ -441,12 +368,6 @@
     <t xml:space="preserve">98XUFqAq!L</t>
   </si>
   <si>
-    <t xml:space="preserve">https://eth-rinkeby.alchemyapi.io/v2/1zWVMyCoaTbeCpaVwxRl-bLmU4GTcucL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1zWVMyCoaTbeCpaVwxRl-bLmU4GTcucL</t>
-  </si>
-  <si>
     <t xml:space="preserve">ipfs://QmW1USgv8KHiGvnaJN7KDs4XqwWYjDeQQjb4Ksi2tZ7UX2</t>
   </si>
   <si>
@@ -462,12 +383,6 @@
     <t xml:space="preserve">W_3IAnh5A*</t>
   </si>
   <si>
-    <t xml:space="preserve">https://eth-rinkeby.alchemyapi.io/v2/2l-VY8MJEZX5xkxRL0eLVL0OP1f5mGTX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2l-VY8MJEZX5xkxRL0eLVL0OP1f5mGTX</t>
-  </si>
-  <si>
     <t xml:space="preserve">ipfs://QmYyQzUZ5X3YErCoUppLnSkL6d8HkjFuymfrcXfh4DtWNv</t>
   </si>
   <si>
@@ -483,12 +398,6 @@
     <t xml:space="preserve">niv(J8TueC</t>
   </si>
   <si>
-    <t xml:space="preserve">https://eth-rinkeby.alchemyapi.io/v2/mSr00x-cOaZhBqkM-WxIPPo-hoZfPrtw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mSr00x-cOaZhBqkM-WxIPPo-hoZfPrtw</t>
-  </si>
-  <si>
     <t xml:space="preserve">ipfs://Qmf8VC46wEyGt4bmhKR7dwuy3JADPFhH4GRceJ4DEAmCNs</t>
   </si>
   <si>
@@ -504,12 +413,6 @@
     <t xml:space="preserve">#j2o%ZIyo+</t>
   </si>
   <si>
-    <t xml:space="preserve">https://eth-rinkeby.alchemyapi.io/v2/TEhARAr2Ww8I2Ynn-KSzQRyfR8LLz5p1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TEhARAr2Ww8I2Ynn-KSzQRyfR8LLz5p1</t>
-  </si>
-  <si>
     <t xml:space="preserve">ipfs://QmfVWqwneMy34qirQw69f1CcK8FrsEfs6hdExtkncikS34</t>
   </si>
   <si>
@@ -525,12 +428,6 @@
     <t xml:space="preserve">^JP*eWJr77</t>
   </si>
   <si>
-    <t xml:space="preserve">https://eth-rinkeby.alchemyapi.io/v2/T1yYOpGdt_T0e57YYLv3UNnaC2v-n-qP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T1yYOpGdt_T0e57YYLv3UNnaC2v-n-qP</t>
-  </si>
-  <si>
     <t xml:space="preserve">ipfs://QmPjbkCqSj6MPX17XKcJP7FtQ676wXPduqtErpFeXzamBS</t>
   </si>
   <si>
@@ -546,12 +443,6 @@
     <t xml:space="preserve">&amp;#7XRHdb$E</t>
   </si>
   <si>
-    <t xml:space="preserve">https://eth-rinkeby.alchemyapi.io/v2/wLtw_u7bSFSkwjWrqFbiQ96onkMo6JxB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wLtw_u7bSFSkwjWrqFbiQ96onkMo6JxB</t>
-  </si>
-  <si>
     <t xml:space="preserve">ipfs://QmaPFwadKb2KgsEpzCSXS9iZ6CvxkmM8uZg9FKCqpkThcJ</t>
   </si>
   <si>
@@ -582,12 +473,6 @@
     <t xml:space="preserve">0)21TVEx(A</t>
   </si>
   <si>
-    <t xml:space="preserve">https://eth-rinkeby.alchemyapi.io/v2/vWPALVgTtaRl-k5SDNNSxn3ymBHxzQfc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vWPALVgTtaRl-k5SDNNSxn3ymBHxzQfc</t>
-  </si>
-  <si>
     <t xml:space="preserve">ipfs://QmeJ2aQ8iwgMTPKX2gDTUQVvJexbDSZ5fcddRsp7DpSFKS</t>
   </si>
   <si>
@@ -603,12 +488,6 @@
     <t xml:space="preserve">g(Nt7uPr1C</t>
   </si>
   <si>
-    <t xml:space="preserve">https://eth-rinkeby.alchemyapi.io/v2/fdegye2jwKtDTwwZo4JEYOxTGuPgJ1zz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fdegye2jwKtDTwwZo4JEYOxTGuPgJ1zz</t>
-  </si>
-  <si>
     <t xml:space="preserve">ipfs://QmWmZUvjXGtjvp7f1bjR9yM74yonJLTPTS2UydZvub83Ua</t>
   </si>
   <si>
@@ -624,12 +503,6 @@
     <t xml:space="preserve">_O_A5U_o$7</t>
   </si>
   <si>
-    <t xml:space="preserve">https://eth-rinkeby.alchemyapi.io/v2/VgHHvfkcKgUfwXDP3OcaMXZPAVXe8Lri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VgHHvfkcKgUfwXDP3OcaMXZPAVXe8Lri</t>
-  </si>
-  <si>
     <t xml:space="preserve">ipfs://QmbXdgHj7cu63ZHE3gDSWXrzKS37sy1tMScCYm6swTRJ9a</t>
   </si>
   <si>
@@ -645,12 +518,6 @@
     <t xml:space="preserve">p(6sfSwvER</t>
   </si>
   <si>
-    <t xml:space="preserve">https://eth-rinkeby.alchemyapi.io/v2/tZ12ufZ9udydyCzRl24cCw-gHkthp6p3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tZ12ufZ9udydyCzRl24cCw-gHkthp6p3</t>
-  </si>
-  <si>
     <t xml:space="preserve">ipfs://QmYJEVxzCa886ERC7XxhvYocFyy7i19Keo9R1GJ2VZ5AWq</t>
   </si>
   <si>
@@ -666,12 +533,6 @@
     <t xml:space="preserve">*nn3IVWu9^</t>
   </si>
   <si>
-    <t xml:space="preserve">https://eth-rinkeby.alchemyapi.io/v2/-4pTVILIXuhHCFPHjJJqbiVM9u0lAVK8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-4pTVILIXuhHCFPHjJJqbiVM9u0lAVK8</t>
-  </si>
-  <si>
     <t xml:space="preserve">ipfs://QmSNGCNWrnZY4paiNVHQJ3ouSWvRrbSXPendNP5gLvSYQm</t>
   </si>
   <si>
@@ -687,12 +548,6 @@
     <t xml:space="preserve">$zIfnw_M86</t>
   </si>
   <si>
-    <t xml:space="preserve">https://eth-rinkeby.alchemyapi.io/v2/XnUXWZL0qrmxCJotI07eRbiuU6UHAd_d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XnUXWZL0qrmxCJotI07eRbiuU6UHAd_d</t>
-  </si>
-  <si>
     <t xml:space="preserve">ipfs://QmezkHsnxzidBF6RQQdddSHRsRcMQtJ5GvLCv1V1QhFgKV</t>
   </si>
   <si>
@@ -723,12 +578,6 @@
     <t xml:space="preserve">^J5$f*PbD2</t>
   </si>
   <si>
-    <t xml:space="preserve">https://eth-rinkeby.alchemyapi.io/v2/iW0sErImsB93rjsmtRzQ8WPYYO30jBH-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iW0sErImsB93rjsmtRzQ8WPYYO30jBH-</t>
-  </si>
-  <si>
     <t xml:space="preserve">ipfs://QmYE3LZdLZANVZCfey5nZcGKrP9v2dfTByrG6hfjiDFL5t</t>
   </si>
   <si>
@@ -774,12 +623,6 @@
     <t xml:space="preserve">tH7WB9vps%</t>
   </si>
   <si>
-    <t xml:space="preserve">https://eth-rinkeby.alchemyapi.io/v2/GB1kNlXApeGlw3-8KTS37HEr77_WRurG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB1kNlXApeGlw3-8KTS37HEr77_WRurG</t>
-  </si>
-  <si>
     <t xml:space="preserve">ipfs://QmTFBKn31aL85isVgyF9cjHzjD4Uptvvx9jBkyWqVtLbiX</t>
   </si>
   <si>
@@ -795,12 +638,6 @@
     <t xml:space="preserve">Gh&amp;2EiNrH4</t>
   </si>
   <si>
-    <t xml:space="preserve">https://eth-rinkeby.alchemyapi.io/v2/mDVK34WBh_KvO4Dz-oYyY-tMad94IH0k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mDVK34WBh_KvO4Dz-oYyY-tMad94IH0k</t>
-  </si>
-  <si>
     <t xml:space="preserve">ipfs://QmTWc3h1qe5whVF7edHEN4h8nefVsJCcUbuPCcEzCpBaPx</t>
   </si>
   <si>
@@ -816,12 +653,6 @@
     <t xml:space="preserve">EC@J6Epc1h</t>
   </si>
   <si>
-    <t xml:space="preserve">https://eth-rinkeby.alchemyapi.io/v2/2VsqybvY-EGqV4WAGU-P4V7C8buXJQ8t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2VsqybvY-EGqV4WAGU-P4V7C8buXJQ8t</t>
-  </si>
-  <si>
     <t xml:space="preserve">ipfs://Qmc6FjYWp27xfUFZgXjqZYJitcSZZQK9bYUrAED6pFuTAw</t>
   </si>
   <si>
@@ -837,12 +668,6 @@
     <t xml:space="preserve">hM3ZBOTw(8</t>
   </si>
   <si>
-    <t xml:space="preserve">https://eth-rinkeby.alchemyapi.io/v2/8RyXQYC18DEDOmQbUFihB74agwvSCM_x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8RyXQYC18DEDOmQbUFihB74agwvSCM_x</t>
-  </si>
-  <si>
     <t xml:space="preserve">ipfs://Qmd9RVu2AASkY146BpuzTwE7QwqnPNGUdfQ8oWY7aPyM8w</t>
   </si>
   <si>
@@ -858,12 +683,6 @@
     <t xml:space="preserve">^dUSj7b43O</t>
   </si>
   <si>
-    <t xml:space="preserve">https://eth-rinkeby.alchemyapi.io/v2/VmJu9dhGeh8a1CdeVPtjFbETxC_foCM3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VmJu9dhGeh8a1CdeVPtjFbETxC_foCM3</t>
-  </si>
-  <si>
     <t xml:space="preserve">ipfs://QmVSHR2h6MszyQS1uHr15D6dVXzrAs12ZxsCHWjb3PVzLV</t>
   </si>
   <si>
@@ -879,12 +698,6 @@
     <t xml:space="preserve">S_9v6OmbVg</t>
   </si>
   <si>
-    <t xml:space="preserve">https://eth-rinkeby.alchemyapi.io/v2/RzPMDEea8IWy9fEEQXdYmclUcIO8TM1n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RzPMDEea8IWy9fEEQXdYmclUcIO8TM1n</t>
-  </si>
-  <si>
     <t xml:space="preserve">ipfs://QmTDRkoYKs7SgEn6pFSBuxE5gbAfAqC9kejjbHH477jLgw</t>
   </si>
   <si>
@@ -900,12 +713,6 @@
     <t xml:space="preserve">grfX%lR&amp;(8</t>
   </si>
   <si>
-    <t xml:space="preserve">https://eth-rinkeby.alchemyapi.io/v2/2Iwrq_LB8oFBx0ib1RoQxgUiuc3UnlSf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2Iwrq_LB8oFBx0ib1RoQxgUiuc3UnlSf</t>
-  </si>
-  <si>
     <t xml:space="preserve">ipfs://QmdG1YUP56hbG51hpDBECUAZ5mWDiYpYCMb84VAmv836SP</t>
   </si>
   <si>
@@ -921,12 +728,6 @@
     <t xml:space="preserve">m95&amp;1RML(7</t>
   </si>
   <si>
-    <t xml:space="preserve">https://eth-rinkeby.alchemyapi.io/v2/hV8rsf6dSJABYnP4JZprnZ7_DcdwjA4R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hV8rsf6dSJABYnP4JZprnZ7_DcdwjA4R</t>
-  </si>
-  <si>
     <t xml:space="preserve">ipfs://QmbkdK8oY5WCyox1kybSaGy4aLcfUMWzhGyFdUdNE9NAvK</t>
   </si>
   <si>
@@ -942,12 +743,6 @@
     <t xml:space="preserve">Z^O64gY(9w</t>
   </si>
   <si>
-    <t xml:space="preserve">https://eth-rinkeby.alchemyapi.io/v2/Kd9m7Sx3q2NHgmn9El25IibTOKP5o5Br</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kd9m7Sx3q2NHgmn9El25IibTOKP5o5Br</t>
-  </si>
-  <si>
     <t xml:space="preserve">ipfs://QmSk271b9u5Lwc4t4QgybdrGNkZdPSYm3HGgdSnny8HpU1</t>
   </si>
   <si>
@@ -963,12 +758,6 @@
     <t xml:space="preserve">W9S5IQy3+^</t>
   </si>
   <si>
-    <t xml:space="preserve">https://eth-rinkeby.alchemyapi.io/v2/73IF-WhUO84Vv4RAXatB8-G_eLJWljRj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73IF-WhUO84Vv4RAXatB8-G_eLJWljRj</t>
-  </si>
-  <si>
     <t xml:space="preserve">ipfs://QmQYZkkAaaMdsZ2LHSR17Gac3gb5nckiSvFeKfhgpSGHyE</t>
   </si>
   <si>
@@ -984,12 +773,6 @@
     <t xml:space="preserve">krV6LWtsg#</t>
   </si>
   <si>
-    <t xml:space="preserve">https://eth-rinkeby.alchemyapi.io/v2/-rojs3beyr-7vJVqjpQkMDSdHRRquSn5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-rojs3beyr-7vJVqjpQkMDSdHRRquSn5</t>
-  </si>
-  <si>
     <t xml:space="preserve">ipfs://QmP2kKFFp4nseLoNLU4a1nJQTaRWWkhAwRBjYsqEN1w1rV</t>
   </si>
   <si>
@@ -1003,12 +786,6 @@
   </si>
   <si>
     <t xml:space="preserve">*91VbDIxt9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://eth-rinkeby.alchemyapi.io/v2/kUQbPA3x1ufij-Xq5CJWyg2YlPH5tSJF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kUQbPA3x1ufij-Xq5CJWyg2YlPH5tSJF</t>
   </si>
   <si>
     <t xml:space="preserve">ipfs://QmPwZeXZoayaWNPdiv2pegDUPGMh8pWvL6Znhr66kkQoP8</t>
@@ -2033,7 +1810,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2068,13 +1845,6 @@
       <color rgb="FF000000"/>
       <name val="Noto Sans CJK SC"/>
       <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Noto Sans CJK SC"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
@@ -2195,7 +1965,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2237,10 +2007,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2252,11 +2018,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2264,23 +2030,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2364,21 +2130,21 @@
   <dimension ref="A1:AMJ200"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4:H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="22.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="19.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="17.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="15.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="69.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="26.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="63.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="32.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="20.43"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="9" min="9" style="2" width="63.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="66.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="42.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2412,18 +2178,15 @@
       <c r="J1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="10" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="12" t="s">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="14" t="s">
+      <c r="D2" s="12"/>
+      <c r="E2" s="13" t="s">
         <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -2432,3069 +2195,2850 @@
       <c r="H2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="12" t="s">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="12" t="s">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="11" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12" t="s">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12" t="s">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12" t="s">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11" t="s">
         <v>21</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="12" t="s">
+      <c r="E7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="11"/>
+      <c r="I7" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="12" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12" t="s">
+      <c r="D8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="11"/>
+      <c r="I8" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="12" t="s">
+    </row>
+    <row r="9" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="D9" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="12" t="s">
+      <c r="E9" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="1" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="12" t="s">
+      <c r="D10" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="12" t="s">
+      <c r="E10" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="11"/>
+      <c r="I10" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="1" t="s">
+    </row>
+    <row r="11" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="I10" s="12" t="s">
+      <c r="D11" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="12" t="s">
+      <c r="E11" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="11"/>
+    </row>
+    <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="12" t="s">
+      <c r="E12" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="11" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="12" t="s">
+      <c r="D13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E13" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="11"/>
+    </row>
+    <row r="14" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12" t="s">
+      <c r="D14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E14" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="11"/>
+    </row>
+    <row r="15" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="12" t="s">
+      <c r="D15" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12" t="s">
+      <c r="E15" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12" t="s">
+      <c r="E16" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12" t="s">
+    </row>
+    <row r="18" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="12" t="s">
+      <c r="E18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="11"/>
+    </row>
+    <row r="19" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="12" t="s">
+      <c r="E19" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="12" t="s">
+      <c r="I20" s="11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="12" t="s">
+    <row r="21" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="12" t="s">
+      <c r="E21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D20" s="1" t="s">
+    </row>
+    <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="I20" s="12" t="s">
+      <c r="D22" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12" t="s">
+      <c r="E22" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="I22" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="2" t="s">
+    </row>
+    <row r="23" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="D23" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I21" s="12" t="s">
+      <c r="E23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="11"/>
+      <c r="I23" s="11" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="12" t="s">
+    <row r="24" s="18" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="B24" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="C24" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="I22" s="12" t="s">
+      <c r="D24" s="17" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12" t="s">
+      <c r="E24" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="J24" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="12" t="s">
+      <c r="AMI24" s="0"/>
+      <c r="AMJ24" s="0"/>
+    </row>
+    <row r="25" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="I23" s="12" t="s">
+      <c r="B25" s="15" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="24" s="19" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="15" t="s">
+      <c r="C25" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="D25" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="E25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I25" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D24" s="18" t="s">
+    </row>
+    <row r="26" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="E24" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="19" t="s">
+      <c r="B26" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="H24" s="19" t="s">
+      <c r="C26" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="I24" s="17" t="s">
+      <c r="D26" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J24" s="20" t="s">
+      <c r="E26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I26" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="AMJ24" s="0"/>
-    </row>
-    <row r="25" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="16" t="s">
+    </row>
+    <row r="27" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B27" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C27" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="2" t="s">
+      <c r="E27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I27" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="H25" s="2" t="s">
+    </row>
+    <row r="28" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="I25" s="12" t="s">
+      <c r="B28" s="15" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="16" t="s">
+      <c r="C28" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="D28" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="E28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I28" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D26" s="1" t="s">
+    </row>
+    <row r="29" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" s="2" t="s">
+      <c r="B29" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="C29" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="I26" s="12" t="s">
+      <c r="D29" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="16" t="s">
+      <c r="E29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I29" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="B27" s="16" t="s">
+    </row>
+    <row r="30" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="B30" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="C30" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" s="2" t="s">
+      <c r="D30" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="E30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I30" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="I27" s="12" t="s">
+    </row>
+    <row r="31" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="15" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="16" t="s">
+      <c r="B31" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="C31" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="D31" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="E31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I31" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" s="2" t="s">
+    </row>
+    <row r="32" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="B32" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="I28" s="12" t="s">
+      <c r="C32" s="11" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="16" t="s">
+      <c r="D32" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="E32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I32" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="C29" s="12" t="s">
+    </row>
+    <row r="33" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="B33" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" s="2" t="s">
+      <c r="C33" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="D33" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="I29" s="12" t="s">
+      <c r="E33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I33" s="11" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="16" t="s">
+    <row r="34" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B34" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C34" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" s="2" t="s">
+      <c r="E34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I34" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="H30" s="2" t="s">
+    </row>
+    <row r="35" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="I30" s="12" t="s">
+      <c r="B35" s="15" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="16" t="s">
+      <c r="C35" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="D35" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="E35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I35" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D31" s="1" t="s">
+    </row>
+    <row r="36" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G31" s="2" t="s">
+      <c r="B36" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="H31" s="2" t="s">
+      <c r="C36" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="I31" s="12" t="s">
+      <c r="D36" s="1" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="16" t="s">
+      <c r="E36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I36" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B32" s="16" t="s">
+    </row>
+    <row r="37" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="B37" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="C37" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G32" s="2" t="s">
+      <c r="D37" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="H32" s="2" t="s">
+      <c r="E37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I37" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="I32" s="12" t="s">
+    </row>
+    <row r="38" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="15" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="16" t="s">
+      <c r="B38" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="C38" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="D38" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="E38" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I38" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G33" s="2" t="s">
+    </row>
+    <row r="39" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="H33" s="2" t="s">
+      <c r="B39" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="I33" s="12" t="s">
+      <c r="C39" s="11" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="16" t="s">
+      <c r="D39" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="E39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I39" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C34" s="12" t="s">
+    </row>
+    <row r="40" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="B40" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G34" s="2" t="s">
+      <c r="C40" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="H34" s="2" t="s">
+      <c r="D40" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="I34" s="2" t="s">
+      <c r="E40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I40" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="16" t="s">
+    <row r="41" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B41" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C41" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35" s="2" t="s">
+      <c r="E41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I41" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="H35" s="2" t="s">
+    </row>
+    <row r="42" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="I35" s="2" t="s">
+      <c r="B42" s="15" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="16" t="s">
+      <c r="C42" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="B36" s="16" t="s">
+      <c r="D42" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="E42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I42" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D36" s="1" t="s">
+    </row>
+    <row r="43" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G36" s="2" t="s">
+      <c r="B43" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="H36" s="2" t="s">
+      <c r="C43" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="I36" s="2" t="s">
+      <c r="D43" s="1" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="37" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="16" t="s">
+      <c r="E43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I43" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B37" s="16" t="s">
+    </row>
+    <row r="44" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="B44" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="C44" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G37" s="2" t="s">
+      <c r="D44" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="H37" s="2" t="s">
+      <c r="E44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I44" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="I37" s="2" t="s">
+    </row>
+    <row r="45" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="15" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="16" t="s">
+      <c r="B45" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="B38" s="16" t="s">
+      <c r="C45" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="D45" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="E45" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I45" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I38" s="2" t="s">
+    </row>
+    <row r="46" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="15" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="39" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="16" t="s">
+      <c r="B46" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="B39" s="16" t="s">
+      <c r="C46" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="D46" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="E46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I46" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G39" s="2" t="s">
+    </row>
+    <row r="47" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="H39" s="2" t="s">
+      <c r="B47" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="I39" s="2" t="s">
+      <c r="C47" s="11" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="40" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="16" t="s">
+      <c r="D47" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B40" s="16" t="s">
+      <c r="E47" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I47" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C40" s="12" t="s">
+    </row>
+    <row r="48" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="B48" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G40" s="2" t="s">
+      <c r="C48" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="H40" s="2" t="s">
+      <c r="D48" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="I40" s="2" t="s">
+      <c r="E48" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I48" s="2" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="16" t="s">
+    <row r="49" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="B41" s="16" t="s">
+      <c r="B49" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C49" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G41" s="2" t="s">
+      <c r="E49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I49" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="H41" s="2" t="s">
+    </row>
+    <row r="50" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="I41" s="2" t="s">
+      <c r="B50" s="15" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="42" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="16" t="s">
+      <c r="C50" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="B42" s="16" t="s">
+      <c r="D50" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C42" s="12" t="s">
+      <c r="E50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I50" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="D42" s="1" t="s">
+    </row>
+    <row r="51" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="E42" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G42" s="2" t="s">
+      <c r="B51" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="H42" s="2" t="s">
+      <c r="C51" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="I42" s="2" t="s">
+      <c r="D51" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="43" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="16" t="s">
+      <c r="E51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I51" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B43" s="16" t="s">
+    </row>
+    <row r="52" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="C43" s="12" t="s">
+      <c r="B52" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="C52" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G43" s="2" t="s">
+      <c r="D52" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="H43" s="2" t="s">
+      <c r="E52" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I52" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="I43" s="2" t="s">
+    </row>
+    <row r="53" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="15" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="44" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="16" t="s">
+      <c r="B53" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="B44" s="16" t="s">
+      <c r="C53" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="C44" s="12" t="s">
+      <c r="D53" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="E53" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I53" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G44" s="2" t="s">
+    </row>
+    <row r="54" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="H44" s="2" t="s">
+      <c r="B54" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="I44" s="2" t="s">
+      <c r="C54" s="11" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="45" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="16" t="s">
+      <c r="D54" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B45" s="16" t="s">
+      <c r="E54" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I54" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C45" s="12" t="s">
+    </row>
+    <row r="55" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="B55" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I45" s="2" t="s">
+      <c r="C55" s="11" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="46" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="16" t="s">
+      <c r="D55" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B46" s="16" t="s">
+      <c r="E55" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I55" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="C46" s="12" t="s">
+    </row>
+    <row r="56" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="B56" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="E46" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G46" s="2" t="s">
+      <c r="C56" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="H46" s="2" t="s">
+      <c r="D56" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="I46" s="2" t="s">
+      <c r="E56" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I56" s="2" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="16" t="s">
+    <row r="57" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="B47" s="16" t="s">
+      <c r="B57" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="C47" s="12" t="s">
+      <c r="C57" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D57" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="E47" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I47" s="2" t="s">
+      <c r="E57" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I57" s="2" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="16" t="s">
+    <row r="58" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="B48" s="16" t="s">
+      <c r="B58" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="C48" s="12" t="s">
+      <c r="C58" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D58" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="E48" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I48" s="2" t="s">
+      <c r="E58" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I58" s="2" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="16" t="s">
+    <row r="59" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B49" s="16" t="s">
+      <c r="B59" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="C49" s="12" t="s">
+      <c r="C59" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D59" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="E49" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G49" s="2" t="s">
+      <c r="E59" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I59" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="H49" s="2" t="s">
+    </row>
+    <row r="60" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="I49" s="2" t="s">
+      <c r="B60" s="15" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="50" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="16" t="s">
+      <c r="C60" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="B50" s="16" t="s">
+      <c r="D60" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="C50" s="12" t="s">
+      <c r="E60" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I60" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="D50" s="1" t="s">
+    </row>
+    <row r="61" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="E50" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G50" s="2" t="s">
+      <c r="B61" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="H50" s="2" t="s">
+      <c r="C61" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="I50" s="2" t="s">
+      <c r="D61" s="1" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="51" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="16" t="s">
+      <c r="I61" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="B51" s="16" t="s">
+    </row>
+    <row r="62" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="15" t="s">
         <v>255</v>
       </c>
-      <c r="C51" s="12" t="s">
+      <c r="B62" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="C62" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="E51" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G51" s="2" t="s">
+      <c r="D62" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="H51" s="2" t="s">
+      <c r="I62" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="I51" s="2" t="s">
+    </row>
+    <row r="63" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A63" s="15" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="52" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="16" t="s">
+      <c r="B63" s="15" t="s">
         <v>261</v>
       </c>
-      <c r="B52" s="16" t="s">
+      <c r="C63" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="C52" s="12" t="s">
+      <c r="D63" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="I63" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="E52" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G52" s="2" t="s">
+    </row>
+    <row r="64" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="15" t="s">
         <v>265</v>
       </c>
-      <c r="H52" s="2" t="s">
+      <c r="B64" s="15" t="s">
         <v>266</v>
       </c>
-      <c r="I52" s="2" t="s">
+      <c r="C64" s="11" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="53" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="16" t="s">
+      <c r="D64" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B53" s="16" t="s">
+      <c r="I64" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="C53" s="12" t="s">
+    </row>
+    <row r="65" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A65" s="15" t="s">
         <v>270</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="B65" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="E53" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G53" s="2" t="s">
+      <c r="C65" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="H53" s="2" t="s">
+      <c r="D65" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="I53" s="2" t="s">
+      <c r="I65" s="2" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="16" t="s">
+    <row r="66" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="15" t="s">
         <v>275</v>
       </c>
-      <c r="B54" s="16" t="s">
+      <c r="B66" s="15" t="s">
         <v>276</v>
       </c>
-      <c r="C54" s="12" t="s">
+      <c r="C66" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D66" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="E54" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G54" s="2" t="s">
+      <c r="I66" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="H54" s="2" t="s">
+    </row>
+    <row r="67" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="15" t="s">
         <v>280</v>
       </c>
-      <c r="I54" s="2" t="s">
+      <c r="B67" s="15" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="55" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="16" t="s">
+      <c r="C67" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="B55" s="16" t="s">
+      <c r="D67" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="C55" s="12" t="s">
+      <c r="I67" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="D55" s="1" t="s">
+    </row>
+    <row r="68" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A68" s="15" t="s">
         <v>285</v>
       </c>
-      <c r="E55" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G55" s="2" t="s">
+      <c r="B68" s="15" t="s">
         <v>286</v>
       </c>
-      <c r="H55" s="2" t="s">
+      <c r="C68" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="I55" s="2" t="s">
+      <c r="D68" s="1" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="56" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="16" t="s">
+      <c r="I68" s="2" t="s">
         <v>289</v>
-      </c>
-      <c r="B56" s="16" t="s">
-        <v>290</v>
-      </c>
-      <c r="C56" s="12" t="s">
-        <v>291</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="16" t="s">
-        <v>296</v>
-      </c>
-      <c r="B57" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="C57" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="I57" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="B58" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="C58" s="12" t="s">
-        <v>305</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="I58" s="2" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="B59" s="16" t="s">
-        <v>311</v>
-      </c>
-      <c r="C59" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="I59" s="2" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="B60" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="C60" s="12" t="s">
-        <v>319</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="I60" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="16" t="s">
-        <v>324</v>
-      </c>
-      <c r="B61" s="16" t="s">
-        <v>325</v>
-      </c>
-      <c r="C61" s="12" t="s">
-        <v>326</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="16" t="s">
-        <v>329</v>
-      </c>
-      <c r="B62" s="16" t="s">
-        <v>330</v>
-      </c>
-      <c r="C62" s="12" t="s">
-        <v>331</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="I62" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="16" t="s">
-        <v>334</v>
-      </c>
-      <c r="B63" s="16" t="s">
-        <v>335</v>
-      </c>
-      <c r="C63" s="12" t="s">
-        <v>336</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="16" t="s">
-        <v>339</v>
-      </c>
-      <c r="B64" s="16" t="s">
-        <v>340</v>
-      </c>
-      <c r="C64" s="12" t="s">
-        <v>341</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="16" t="s">
-        <v>344</v>
-      </c>
-      <c r="B65" s="16" t="s">
-        <v>345</v>
-      </c>
-      <c r="C65" s="12" t="s">
-        <v>346</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="I65" s="2" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="16" t="s">
-        <v>349</v>
-      </c>
-      <c r="B66" s="16" t="s">
-        <v>350</v>
-      </c>
-      <c r="C66" s="12" t="s">
-        <v>351</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="I66" s="2" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="16" t="s">
-        <v>354</v>
-      </c>
-      <c r="B67" s="16" t="s">
-        <v>355</v>
-      </c>
-      <c r="C67" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="I67" s="2" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="16" t="s">
-        <v>359</v>
-      </c>
-      <c r="B68" s="16" t="s">
-        <v>360</v>
-      </c>
-      <c r="C68" s="12" t="s">
-        <v>361</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="I68" s="2" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="s">
-        <v>364</v>
+        <v>290</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="C69" s="12" t="s">
-        <v>366</v>
+        <v>291</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>292</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>367</v>
+        <v>293</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>368</v>
+        <v>294</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="2" t="s">
-        <v>369</v>
+        <v>295</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="C70" s="12" t="s">
-        <v>371</v>
+        <v>296</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>297</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>372</v>
+        <v>298</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>373</v>
+        <v>299</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="2" t="s">
-        <v>374</v>
+        <v>300</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="C71" s="12" t="s">
-        <v>376</v>
+        <v>301</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>302</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>377</v>
+        <v>303</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>378</v>
+        <v>304</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="2" t="s">
-        <v>379</v>
+        <v>305</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="C72" s="12" t="s">
-        <v>381</v>
+        <v>306</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>307</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>382</v>
+        <v>308</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>383</v>
+        <v>309</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B73" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A74" s="15"/>
+      <c r="B74" s="15"/>
+      <c r="C74" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A75" s="10"/>
+      <c r="B75" s="10"/>
+      <c r="C75" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A76" s="10"/>
+      <c r="B76" s="10"/>
+      <c r="C76" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A77" s="10"/>
+      <c r="B77" s="10"/>
+      <c r="C77" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A78" s="10"/>
+      <c r="B78" s="10"/>
+      <c r="C78" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A79" s="10"/>
+      <c r="B79" s="10"/>
+      <c r="C79" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A80" s="10"/>
+      <c r="B80" s="10"/>
+      <c r="C80" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A81" s="10"/>
+      <c r="B81" s="10"/>
+      <c r="C81" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A82" s="10"/>
+      <c r="B82" s="10"/>
+      <c r="C82" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A83" s="10"/>
+      <c r="B83" s="10"/>
+      <c r="C83" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A84" s="10"/>
+      <c r="B84" s="10"/>
+      <c r="C84" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A85" s="10"/>
+      <c r="B85" s="10"/>
+      <c r="C85" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A86" s="10"/>
+      <c r="B86" s="10"/>
+      <c r="C86" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A87" s="10"/>
+      <c r="B87" s="10"/>
+      <c r="C87" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A88" s="20"/>
+      <c r="B88" s="20"/>
+      <c r="C88" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A89" s="10"/>
+      <c r="B89" s="10"/>
+      <c r="C89" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A90" s="10"/>
+      <c r="B90" s="10"/>
+      <c r="C90" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A91" s="10"/>
+      <c r="B91" s="10"/>
+      <c r="C91" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A92" s="10"/>
+      <c r="B92" s="10"/>
+      <c r="C92" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A93" s="10"/>
+      <c r="B93" s="10"/>
+      <c r="C93" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A94" s="10"/>
+      <c r="B94" s="10"/>
+      <c r="C94" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A95" s="10"/>
+      <c r="B95" s="10"/>
+      <c r="C95" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A96" s="10"/>
+      <c r="B96" s="10"/>
+      <c r="C96" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A97" s="10"/>
+      <c r="B97" s="10"/>
+      <c r="C97" s="11" t="s">
         <v>384</v>
       </c>
-      <c r="B73" s="16" t="s">
+      <c r="D97" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="C73" s="12" t="s">
+      <c r="I97" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="D73" s="1" t="s">
+    </row>
+    <row r="98" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A98" s="10"/>
+      <c r="B98" s="10"/>
+      <c r="C98" s="11" t="s">
         <v>387</v>
       </c>
-      <c r="I73" s="2" t="s">
+      <c r="D98" s="1" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="74" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="16"/>
-      <c r="B74" s="16"/>
-      <c r="C74" s="12" t="s">
+      <c r="I98" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="D74" s="1" t="s">
+    </row>
+    <row r="99" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A99" s="10"/>
+      <c r="B99" s="10"/>
+      <c r="C99" s="11" t="s">
         <v>390</v>
       </c>
-      <c r="I74" s="2" t="s">
+      <c r="D99" s="1" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="75" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="11"/>
-      <c r="B75" s="11"/>
-      <c r="C75" s="12" t="s">
+      <c r="I99" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="D75" s="1" t="s">
+    </row>
+    <row r="100" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A100" s="10"/>
+      <c r="B100" s="10"/>
+      <c r="C100" s="11" t="s">
         <v>393</v>
       </c>
-      <c r="I75" s="2" t="s">
+      <c r="D100" s="1" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="76" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="11"/>
-      <c r="B76" s="11"/>
-      <c r="C76" s="12" t="s">
+      <c r="I100" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="D76" s="1" t="s">
+    </row>
+    <row r="101" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A101" s="10"/>
+      <c r="B101" s="10"/>
+      <c r="C101" s="11" t="s">
         <v>396</v>
       </c>
-      <c r="I76" s="2" t="s">
+      <c r="D101" s="1" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="77" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="11"/>
-      <c r="B77" s="11"/>
-      <c r="C77" s="12" t="s">
+      <c r="I101" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="D77" s="1" t="s">
+    </row>
+    <row r="102" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A102" s="10"/>
+      <c r="B102" s="10"/>
+      <c r="C102" s="11" t="s">
         <v>399</v>
       </c>
-      <c r="I77" s="2" t="s">
+      <c r="D102" s="1" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="78" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="11"/>
-      <c r="B78" s="11"/>
-      <c r="C78" s="12" t="s">
+      <c r="I102" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="D78" s="1" t="s">
+    </row>
+    <row r="103" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A103" s="10"/>
+      <c r="B103" s="10"/>
+      <c r="C103" s="11" t="s">
         <v>402</v>
       </c>
-      <c r="I78" s="2" t="s">
+      <c r="D103" s="1" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="79" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="11"/>
-      <c r="B79" s="11"/>
-      <c r="C79" s="12" t="s">
+      <c r="I103" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="D79" s="1" t="s">
+    </row>
+    <row r="104" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A104" s="10"/>
+      <c r="B104" s="10"/>
+      <c r="C104" s="11" t="s">
         <v>405</v>
       </c>
-      <c r="I79" s="2" t="s">
+      <c r="D104" s="1" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="80" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="11"/>
-      <c r="B80" s="11"/>
-      <c r="C80" s="12" t="s">
+      <c r="I104" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="D80" s="1" t="s">
+    </row>
+    <row r="105" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A105" s="10"/>
+      <c r="B105" s="10"/>
+      <c r="C105" s="11" t="s">
         <v>408</v>
       </c>
-      <c r="I80" s="2" t="s">
+      <c r="D105" s="1" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="81" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A81" s="11"/>
-      <c r="B81" s="11"/>
-      <c r="C81" s="12" t="s">
+      <c r="I105" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="D81" s="1" t="s">
+    </row>
+    <row r="106" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A106" s="10"/>
+      <c r="B106" s="10"/>
+      <c r="C106" s="11" t="s">
         <v>411</v>
       </c>
-      <c r="I81" s="2" t="s">
+      <c r="D106" s="1" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="82" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="11"/>
-      <c r="B82" s="11"/>
-      <c r="C82" s="12" t="s">
+      <c r="I106" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="D82" s="1" t="s">
+    </row>
+    <row r="107" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A107" s="10"/>
+      <c r="B107" s="10"/>
+      <c r="C107" s="11" t="s">
         <v>414</v>
       </c>
-      <c r="I82" s="2" t="s">
+      <c r="D107" s="1" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="83" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A83" s="11"/>
-      <c r="B83" s="11"/>
-      <c r="C83" s="12" t="s">
+      <c r="I107" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="D83" s="1" t="s">
+    </row>
+    <row r="108" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A108" s="10"/>
+      <c r="B108" s="10"/>
+      <c r="C108" s="11" t="s">
         <v>417</v>
       </c>
-      <c r="I83" s="2" t="s">
+      <c r="D108" s="1" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="84" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A84" s="11"/>
-      <c r="B84" s="11"/>
-      <c r="C84" s="12" t="s">
+      <c r="I108" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="D84" s="1" t="s">
+    </row>
+    <row r="109" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A109" s="10"/>
+      <c r="B109" s="10"/>
+      <c r="C109" s="11" t="s">
         <v>420</v>
       </c>
-      <c r="I84" s="2" t="s">
+      <c r="D109" s="1" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="85" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A85" s="11"/>
-      <c r="B85" s="11"/>
-      <c r="C85" s="12" t="s">
+      <c r="I109" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="D85" s="1" t="s">
+    </row>
+    <row r="110" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A110" s="10"/>
+      <c r="B110" s="10"/>
+      <c r="C110" s="11" t="s">
         <v>423</v>
       </c>
-      <c r="I85" s="2" t="s">
+      <c r="D110" s="1" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="86" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A86" s="11"/>
-      <c r="B86" s="11"/>
-      <c r="C86" s="12" t="s">
+      <c r="I110" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="D86" s="1" t="s">
+    </row>
+    <row r="111" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A111" s="10"/>
+      <c r="B111" s="10"/>
+      <c r="C111" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="I86" s="2" t="s">
+      <c r="D111" s="1" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="87" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A87" s="11"/>
-      <c r="B87" s="11"/>
-      <c r="C87" s="12" t="s">
+      <c r="I111" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="D87" s="1" t="s">
+    </row>
+    <row r="112" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A112" s="10"/>
+      <c r="B112" s="10"/>
+      <c r="C112" s="11" t="s">
         <v>429</v>
       </c>
-      <c r="I87" s="2" t="s">
+      <c r="D112" s="1" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="88" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A88" s="21"/>
-      <c r="B88" s="21"/>
-      <c r="C88" s="12" t="s">
+      <c r="I112" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="D88" s="1" t="s">
+    </row>
+    <row r="113" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A113" s="10"/>
+      <c r="B113" s="10"/>
+      <c r="C113" s="11" t="s">
         <v>432</v>
       </c>
-      <c r="I88" s="2" t="s">
+      <c r="D113" s="1" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="89" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A89" s="11"/>
-      <c r="B89" s="11"/>
-      <c r="C89" s="12" t="s">
+      <c r="I113" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="D89" s="1" t="s">
+    </row>
+    <row r="114" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A114" s="10"/>
+      <c r="B114" s="10"/>
+      <c r="C114" s="11" t="s">
         <v>435</v>
       </c>
-      <c r="I89" s="2" t="s">
+      <c r="D114" s="1" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="90" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A90" s="11"/>
-      <c r="B90" s="11"/>
-      <c r="C90" s="12" t="s">
+      <c r="I114" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="D90" s="1" t="s">
+    </row>
+    <row r="115" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A115" s="10"/>
+      <c r="B115" s="10"/>
+      <c r="C115" s="11" t="s">
         <v>438</v>
       </c>
-      <c r="I90" s="2" t="s">
+      <c r="D115" s="1" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="91" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A91" s="11"/>
-      <c r="B91" s="11"/>
-      <c r="C91" s="12" t="s">
+      <c r="I115" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="D91" s="1" t="s">
+    </row>
+    <row r="116" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A116" s="10"/>
+      <c r="B116" s="10"/>
+      <c r="C116" s="11" t="s">
         <v>441</v>
       </c>
-      <c r="I91" s="2" t="s">
+      <c r="D116" s="1" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="92" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A92" s="11"/>
-      <c r="B92" s="11"/>
-      <c r="C92" s="12" t="s">
+      <c r="I116" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="D92" s="1" t="s">
+    </row>
+    <row r="117" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A117" s="10"/>
+      <c r="B117" s="10"/>
+      <c r="C117" s="11" t="s">
         <v>444</v>
       </c>
-      <c r="I92" s="2" t="s">
+      <c r="D117" s="1" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="93" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A93" s="11"/>
-      <c r="B93" s="11"/>
-      <c r="C93" s="12" t="s">
+      <c r="I117" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="D93" s="1" t="s">
+    </row>
+    <row r="118" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A118" s="10"/>
+      <c r="B118" s="10"/>
+      <c r="C118" s="11" t="s">
         <v>447</v>
       </c>
-      <c r="I93" s="2" t="s">
+      <c r="D118" s="1" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="94" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A94" s="11"/>
-      <c r="B94" s="11"/>
-      <c r="C94" s="12" t="s">
+      <c r="I118" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="D94" s="1" t="s">
+    </row>
+    <row r="119" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A119" s="10"/>
+      <c r="B119" s="10"/>
+      <c r="C119" s="11" t="s">
         <v>450</v>
       </c>
-      <c r="I94" s="2" t="s">
+      <c r="D119" s="1" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="95" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A95" s="11"/>
-      <c r="B95" s="11"/>
-      <c r="C95" s="12" t="s">
+      <c r="I119" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="D95" s="1" t="s">
+    </row>
+    <row r="120" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A120" s="10"/>
+      <c r="B120" s="10"/>
+      <c r="C120" s="11" t="s">
         <v>453</v>
       </c>
-      <c r="I95" s="2" t="s">
+      <c r="D120" s="1" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="96" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A96" s="11"/>
-      <c r="B96" s="11"/>
-      <c r="C96" s="12" t="s">
+      <c r="I120" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="D96" s="1" t="s">
+    </row>
+    <row r="121" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A121" s="10"/>
+      <c r="B121" s="10"/>
+      <c r="C121" s="11" t="s">
         <v>456</v>
       </c>
-      <c r="I96" s="2" t="s">
+      <c r="D121" s="1" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="97" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A97" s="11"/>
-      <c r="B97" s="11"/>
-      <c r="C97" s="12" t="s">
+      <c r="I121" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="D97" s="1" t="s">
+    </row>
+    <row r="122" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A122" s="10"/>
+      <c r="B122" s="10"/>
+      <c r="C122" s="11" t="s">
         <v>459</v>
       </c>
-      <c r="I97" s="2" t="s">
+      <c r="D122" s="1" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="98" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A98" s="11"/>
-      <c r="B98" s="11"/>
-      <c r="C98" s="12" t="s">
+      <c r="I122" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="D98" s="1" t="s">
+    </row>
+    <row r="123" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A123" s="10"/>
+      <c r="B123" s="10"/>
+      <c r="C123" s="11" t="s">
         <v>462</v>
       </c>
-      <c r="I98" s="2" t="s">
+      <c r="D123" s="1" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="99" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A99" s="11"/>
-      <c r="B99" s="11"/>
-      <c r="C99" s="12" t="s">
+      <c r="I123" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="D99" s="1" t="s">
+    </row>
+    <row r="124" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A124" s="20"/>
+      <c r="B124" s="20"/>
+      <c r="C124" s="11" t="s">
         <v>465</v>
       </c>
-      <c r="I99" s="2" t="s">
+      <c r="D124" s="1" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="100" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A100" s="11"/>
-      <c r="B100" s="11"/>
-      <c r="C100" s="12" t="s">
+      <c r="I124" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="D100" s="1" t="s">
+    </row>
+    <row r="125" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A125" s="10"/>
+      <c r="B125" s="10"/>
+      <c r="C125" s="11" t="s">
         <v>468</v>
       </c>
-      <c r="I100" s="2" t="s">
+      <c r="D125" s="1" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="101" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A101" s="11"/>
-      <c r="B101" s="11"/>
-      <c r="C101" s="12" t="s">
+      <c r="I125" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="D101" s="1" t="s">
+    </row>
+    <row r="126" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A126" s="10"/>
+      <c r="B126" s="10"/>
+      <c r="C126" s="11" t="s">
         <v>471</v>
       </c>
-      <c r="I101" s="2" t="s">
+      <c r="D126" s="1" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="102" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A102" s="11"/>
-      <c r="B102" s="11"/>
-      <c r="C102" s="12" t="s">
+      <c r="I126" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="D102" s="1" t="s">
+    </row>
+    <row r="127" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A127" s="10"/>
+      <c r="B127" s="10"/>
+      <c r="C127" s="11" t="s">
         <v>474</v>
       </c>
-      <c r="I102" s="2" t="s">
+      <c r="D127" s="1" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="103" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A103" s="11"/>
-      <c r="B103" s="11"/>
-      <c r="C103" s="12" t="s">
+      <c r="I127" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="D103" s="1" t="s">
+    </row>
+    <row r="128" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A128" s="10"/>
+      <c r="B128" s="10"/>
+      <c r="C128" s="11" t="s">
         <v>477</v>
       </c>
-      <c r="I103" s="2" t="s">
+      <c r="D128" s="1" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="104" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A104" s="11"/>
-      <c r="B104" s="11"/>
-      <c r="C104" s="12" t="s">
+      <c r="I128" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="D104" s="1" t="s">
+    </row>
+    <row r="129" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A129" s="10"/>
+      <c r="B129" s="10"/>
+      <c r="C129" s="11" t="s">
         <v>480</v>
       </c>
-      <c r="I104" s="2" t="s">
+      <c r="D129" s="1" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="105" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A105" s="11"/>
-      <c r="B105" s="11"/>
-      <c r="C105" s="12" t="s">
+      <c r="I129" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="D105" s="1" t="s">
+    </row>
+    <row r="130" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A130" s="10"/>
+      <c r="B130" s="10"/>
+      <c r="C130" s="11" t="s">
         <v>483</v>
       </c>
-      <c r="I105" s="2" t="s">
+      <c r="D130" s="1" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="106" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A106" s="11"/>
-      <c r="B106" s="11"/>
-      <c r="C106" s="12" t="s">
+      <c r="I130" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="D106" s="1" t="s">
+    </row>
+    <row r="131" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A131" s="10"/>
+      <c r="B131" s="10"/>
+      <c r="C131" s="11" t="s">
         <v>486</v>
       </c>
-      <c r="I106" s="2" t="s">
+      <c r="D131" s="1" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="107" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A107" s="11"/>
-      <c r="B107" s="11"/>
-      <c r="C107" s="12" t="s">
+      <c r="I131" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="D107" s="1" t="s">
+    </row>
+    <row r="132" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A132" s="10"/>
+      <c r="B132" s="10"/>
+      <c r="C132" s="11" t="s">
         <v>489</v>
       </c>
-      <c r="I107" s="2" t="s">
+      <c r="D132" s="1" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="108" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A108" s="11"/>
-      <c r="B108" s="11"/>
-      <c r="C108" s="12" t="s">
+      <c r="I132" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="D108" s="1" t="s">
+    </row>
+    <row r="133" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A133" s="20"/>
+      <c r="B133" s="20"/>
+      <c r="C133" s="11" t="s">
         <v>492</v>
       </c>
-      <c r="I108" s="2" t="s">
+      <c r="D133" s="1" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="109" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A109" s="11"/>
-      <c r="B109" s="11"/>
-      <c r="C109" s="12" t="s">
+      <c r="I133" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="D109" s="1" t="s">
+    </row>
+    <row r="134" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A134" s="10"/>
+      <c r="B134" s="10"/>
+      <c r="C134" s="11" t="s">
         <v>495</v>
       </c>
-      <c r="I109" s="2" t="s">
+      <c r="D134" s="1" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="110" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A110" s="11"/>
-      <c r="B110" s="11"/>
-      <c r="C110" s="12" t="s">
+      <c r="I134" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="D110" s="1" t="s">
+    </row>
+    <row r="135" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A135" s="10"/>
+      <c r="B135" s="10"/>
+      <c r="C135" s="11" t="s">
         <v>498</v>
       </c>
-      <c r="I110" s="2" t="s">
+      <c r="D135" s="1" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="111" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A111" s="11"/>
-      <c r="B111" s="11"/>
-      <c r="C111" s="12" t="s">
+      <c r="I135" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="D111" s="1" t="s">
+    </row>
+    <row r="136" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A136" s="20"/>
+      <c r="B136" s="20"/>
+      <c r="C136" s="11" t="s">
         <v>501</v>
       </c>
-      <c r="I111" s="2" t="s">
+      <c r="D136" s="1" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="112" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A112" s="11"/>
-      <c r="B112" s="11"/>
-      <c r="C112" s="12" t="s">
+      <c r="I136" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="D112" s="1" t="s">
+    </row>
+    <row r="137" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A137" s="10"/>
+      <c r="B137" s="10"/>
+      <c r="C137" s="11" t="s">
         <v>504</v>
       </c>
-      <c r="I112" s="2" t="s">
+      <c r="D137" s="1" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="113" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A113" s="11"/>
-      <c r="B113" s="11"/>
-      <c r="C113" s="12" t="s">
+      <c r="I137" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="D113" s="1" t="s">
+    </row>
+    <row r="138" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A138" s="20"/>
+      <c r="B138" s="20"/>
+      <c r="C138" s="11" t="s">
         <v>507</v>
       </c>
-      <c r="I113" s="2" t="s">
+      <c r="D138" s="1" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="114" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A114" s="11"/>
-      <c r="B114" s="11"/>
-      <c r="C114" s="12" t="s">
+      <c r="I138" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="D114" s="1" t="s">
+    </row>
+    <row r="139" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A139" s="10"/>
+      <c r="B139" s="10"/>
+      <c r="C139" s="11" t="s">
         <v>510</v>
       </c>
-      <c r="I114" s="2" t="s">
+      <c r="D139" s="1" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="115" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A115" s="11"/>
-      <c r="B115" s="11"/>
-      <c r="C115" s="12" t="s">
+      <c r="I139" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="D115" s="1" t="s">
+    </row>
+    <row r="140" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A140" s="20"/>
+      <c r="B140" s="20"/>
+      <c r="C140" s="11" t="s">
         <v>513</v>
       </c>
-      <c r="I115" s="2" t="s">
+      <c r="D140" s="1" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="116" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A116" s="11"/>
-      <c r="B116" s="11"/>
-      <c r="C116" s="12" t="s">
+      <c r="I140" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="D116" s="1" t="s">
+    </row>
+    <row r="141" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A141" s="20"/>
+      <c r="B141" s="20"/>
+      <c r="C141" s="11" t="s">
         <v>516</v>
       </c>
-      <c r="I116" s="2" t="s">
+      <c r="D141" s="1" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="117" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A117" s="11"/>
-      <c r="B117" s="11"/>
-      <c r="C117" s="12" t="s">
+      <c r="I141" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="D117" s="1" t="s">
+    </row>
+    <row r="142" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A142" s="10"/>
+      <c r="B142" s="10"/>
+      <c r="C142" s="11" t="s">
         <v>519</v>
       </c>
-      <c r="I117" s="2" t="s">
+      <c r="D142" s="1" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="118" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A118" s="11"/>
-      <c r="B118" s="11"/>
-      <c r="C118" s="12" t="s">
+      <c r="I142" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="D118" s="1" t="s">
+    </row>
+    <row r="143" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A143" s="10"/>
+      <c r="B143" s="10"/>
+      <c r="D143" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="I118" s="2" t="s">
+      <c r="I143" s="2" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A119" s="11"/>
-      <c r="B119" s="11"/>
-      <c r="C119" s="12" t="s">
+    <row r="144" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A144" s="10"/>
+      <c r="B144" s="10"/>
+      <c r="D144" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="D119" s="1" t="s">
+      <c r="I144" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="I119" s="2" t="s">
+    </row>
+    <row r="145" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A145" s="20"/>
+      <c r="B145" s="20"/>
+      <c r="D145" s="1" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="120" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A120" s="11"/>
-      <c r="B120" s="11"/>
-      <c r="C120" s="12" t="s">
+      <c r="I145" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="D120" s="1" t="s">
+    </row>
+    <row r="146" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A146" s="20"/>
+      <c r="B146" s="20"/>
+      <c r="D146" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="I120" s="2" t="s">
+      <c r="I146" s="2" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A121" s="11"/>
-      <c r="B121" s="11"/>
-      <c r="C121" s="12" t="s">
+    <row r="147" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A147" s="10"/>
+      <c r="B147" s="10"/>
+      <c r="D147" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="D121" s="1" t="s">
+      <c r="I147" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="I121" s="2" t="s">
+    </row>
+    <row r="148" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A148" s="10"/>
+      <c r="B148" s="10"/>
+      <c r="D148" s="1" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="122" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A122" s="11"/>
-      <c r="B122" s="11"/>
-      <c r="C122" s="12" t="s">
+      <c r="I148" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="D122" s="1" t="s">
+    </row>
+    <row r="149" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A149" s="20"/>
+      <c r="B149" s="20"/>
+      <c r="D149" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="I122" s="2" t="s">
+      <c r="I149" s="2" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A123" s="11"/>
-      <c r="B123" s="11"/>
-      <c r="C123" s="12" t="s">
+    <row r="150" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A150" s="10"/>
+      <c r="B150" s="10"/>
+      <c r="D150" s="12"/>
+      <c r="E150" s="12"/>
+      <c r="F150" s="12"/>
+      <c r="I150" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="D123" s="1" t="s">
+    </row>
+    <row r="151" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A151" s="10"/>
+      <c r="B151" s="10"/>
+      <c r="D151" s="12"/>
+      <c r="E151" s="12"/>
+      <c r="F151" s="12"/>
+      <c r="I151" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="I123" s="2" t="s">
+    </row>
+    <row r="152" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A152" s="20"/>
+      <c r="B152" s="20"/>
+      <c r="D152" s="12"/>
+      <c r="E152" s="12"/>
+      <c r="F152" s="12"/>
+      <c r="I152" s="2" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A124" s="21"/>
-      <c r="B124" s="21"/>
-      <c r="C124" s="12" t="s">
+    <row r="153" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A153" s="20"/>
+      <c r="B153" s="20"/>
+      <c r="D153" s="12"/>
+      <c r="E153" s="12"/>
+      <c r="F153" s="12"/>
+      <c r="I153" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="D124" s="1" t="s">
+    </row>
+    <row r="154" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A154" s="10"/>
+      <c r="B154" s="10"/>
+      <c r="D154" s="12"/>
+      <c r="E154" s="12"/>
+      <c r="F154" s="12"/>
+      <c r="I154" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="I124" s="2" t="s">
+    </row>
+    <row r="155" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A155" s="20"/>
+      <c r="B155" s="20"/>
+      <c r="D155" s="12"/>
+      <c r="E155" s="12"/>
+      <c r="F155" s="12"/>
+      <c r="I155" s="2" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A125" s="11"/>
-      <c r="B125" s="11"/>
-      <c r="C125" s="12" t="s">
+    <row r="156" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A156" s="10"/>
+      <c r="B156" s="10"/>
+      <c r="D156" s="12"/>
+      <c r="E156" s="12"/>
+      <c r="F156" s="12"/>
+      <c r="I156" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="D125" s="1" t="s">
+    </row>
+    <row r="157" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A157" s="10"/>
+      <c r="B157" s="10"/>
+      <c r="D157" s="12"/>
+      <c r="E157" s="12"/>
+      <c r="F157" s="12"/>
+      <c r="I157" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="I125" s="2" t="s">
+    </row>
+    <row r="158" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A158" s="20"/>
+      <c r="B158" s="20"/>
+      <c r="D158" s="12"/>
+      <c r="E158" s="12"/>
+      <c r="F158" s="12"/>
+      <c r="I158" s="2" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A126" s="11"/>
-      <c r="B126" s="11"/>
-      <c r="C126" s="12" t="s">
+    <row r="159" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A159" s="20"/>
+      <c r="B159" s="20"/>
+      <c r="D159" s="12"/>
+      <c r="E159" s="12"/>
+      <c r="F159" s="12"/>
+      <c r="I159" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="D126" s="1" t="s">
+    </row>
+    <row r="160" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A160" s="10"/>
+      <c r="B160" s="10"/>
+      <c r="D160" s="12"/>
+      <c r="E160" s="12"/>
+      <c r="F160" s="12"/>
+      <c r="I160" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="I126" s="2" t="s">
+    </row>
+    <row r="161" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A161" s="20"/>
+      <c r="B161" s="20"/>
+      <c r="D161" s="12"/>
+      <c r="E161" s="12"/>
+      <c r="F161" s="12"/>
+      <c r="I161" s="2" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A127" s="11"/>
-      <c r="B127" s="11"/>
-      <c r="C127" s="12" t="s">
+    <row r="162" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A162" s="10"/>
+      <c r="B162" s="10"/>
+      <c r="D162" s="12"/>
+      <c r="E162" s="12"/>
+      <c r="F162" s="12"/>
+      <c r="I162" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="D127" s="1" t="s">
+    </row>
+    <row r="163" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A163" s="20"/>
+      <c r="B163" s="20"/>
+      <c r="D163" s="12"/>
+      <c r="E163" s="12"/>
+      <c r="F163" s="12"/>
+      <c r="I163" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="I127" s="2" t="s">
+    </row>
+    <row r="164" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A164" s="10"/>
+      <c r="B164" s="10"/>
+      <c r="D164" s="12"/>
+      <c r="E164" s="12"/>
+      <c r="F164" s="12"/>
+      <c r="I164" s="2" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A128" s="11"/>
-      <c r="B128" s="11"/>
-      <c r="C128" s="12" t="s">
+    <row r="165" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A165" s="20"/>
+      <c r="B165" s="20"/>
+      <c r="D165" s="12"/>
+      <c r="E165" s="12"/>
+      <c r="F165" s="12"/>
+      <c r="I165" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="D128" s="1" t="s">
+    </row>
+    <row r="166" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A166" s="10"/>
+      <c r="B166" s="10"/>
+      <c r="D166" s="12"/>
+      <c r="E166" s="12"/>
+      <c r="F166" s="12"/>
+      <c r="I166" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="I128" s="2" t="s">
+    </row>
+    <row r="167" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A167" s="10"/>
+      <c r="B167" s="10"/>
+      <c r="D167" s="12"/>
+      <c r="E167" s="12"/>
+      <c r="F167" s="12"/>
+      <c r="I167" s="2" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A129" s="11"/>
-      <c r="B129" s="11"/>
-      <c r="C129" s="12" t="s">
+    <row r="168" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A168" s="10"/>
+      <c r="B168" s="10"/>
+      <c r="D168" s="12"/>
+      <c r="E168" s="12"/>
+      <c r="F168" s="12"/>
+      <c r="I168" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="D129" s="1" t="s">
+    </row>
+    <row r="169" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A169" s="10"/>
+      <c r="B169" s="10"/>
+      <c r="D169" s="12"/>
+      <c r="E169" s="12"/>
+      <c r="F169" s="12"/>
+      <c r="I169" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="I129" s="2" t="s">
+    </row>
+    <row r="170" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A170" s="10"/>
+      <c r="B170" s="10"/>
+      <c r="D170" s="12"/>
+      <c r="E170" s="12"/>
+      <c r="F170" s="12"/>
+      <c r="I170" s="2" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A130" s="11"/>
-      <c r="B130" s="11"/>
-      <c r="C130" s="12" t="s">
+    <row r="171" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A171" s="20"/>
+      <c r="B171" s="20"/>
+      <c r="D171" s="12"/>
+      <c r="E171" s="12"/>
+      <c r="F171" s="12"/>
+      <c r="I171" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="D130" s="1" t="s">
+    </row>
+    <row r="172" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A172" s="10"/>
+      <c r="B172" s="10"/>
+      <c r="D172" s="12"/>
+      <c r="E172" s="12"/>
+      <c r="F172" s="12"/>
+      <c r="I172" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="I130" s="2" t="s">
+    </row>
+    <row r="173" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A173" s="20"/>
+      <c r="B173" s="20"/>
+      <c r="D173" s="12"/>
+      <c r="E173" s="12"/>
+      <c r="F173" s="12"/>
+      <c r="I173" s="2" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A131" s="11"/>
-      <c r="B131" s="11"/>
-      <c r="C131" s="12" t="s">
+    <row r="174" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A174" s="10"/>
+      <c r="B174" s="10"/>
+      <c r="D174" s="12"/>
+      <c r="E174" s="12"/>
+      <c r="F174" s="12"/>
+      <c r="I174" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="D131" s="1" t="s">
+    </row>
+    <row r="175" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A175" s="20"/>
+      <c r="B175" s="20"/>
+      <c r="D175" s="12"/>
+      <c r="E175" s="12"/>
+      <c r="F175" s="12"/>
+      <c r="I175" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="I131" s="2" t="s">
+    </row>
+    <row r="176" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A176" s="10"/>
+      <c r="B176" s="10"/>
+      <c r="D176" s="12"/>
+      <c r="E176" s="12"/>
+      <c r="F176" s="12"/>
+      <c r="I176" s="2" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A132" s="11"/>
-      <c r="B132" s="11"/>
-      <c r="C132" s="12" t="s">
+    <row r="177" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A177" s="20"/>
+      <c r="B177" s="20"/>
+      <c r="D177" s="12"/>
+      <c r="E177" s="12"/>
+      <c r="F177" s="12"/>
+      <c r="I177" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="D132" s="1" t="s">
+    </row>
+    <row r="178" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A178" s="10"/>
+      <c r="B178" s="10"/>
+      <c r="D178" s="12"/>
+      <c r="E178" s="12"/>
+      <c r="F178" s="12"/>
+      <c r="I178" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="I132" s="2" t="s">
+    </row>
+    <row r="179" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A179" s="10"/>
+      <c r="B179" s="10"/>
+      <c r="D179" s="12"/>
+      <c r="E179" s="12"/>
+      <c r="F179" s="12"/>
+      <c r="I179" s="2" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A133" s="21"/>
-      <c r="B133" s="21"/>
-      <c r="C133" s="12" t="s">
+    <row r="180" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A180" s="10"/>
+      <c r="B180" s="10"/>
+      <c r="D180" s="12"/>
+      <c r="E180" s="12"/>
+      <c r="F180" s="12"/>
+      <c r="I180" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="D133" s="1" t="s">
+    </row>
+    <row r="181" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A181" s="10"/>
+      <c r="B181" s="10"/>
+      <c r="D181" s="12"/>
+      <c r="E181" s="12"/>
+      <c r="F181" s="12"/>
+      <c r="I181" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="I133" s="2" t="s">
+    </row>
+    <row r="182" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A182" s="20"/>
+      <c r="B182" s="20"/>
+      <c r="D182" s="12"/>
+      <c r="E182" s="12"/>
+      <c r="F182" s="12"/>
+      <c r="I182" s="2" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A134" s="11"/>
-      <c r="B134" s="11"/>
-      <c r="C134" s="12" t="s">
+    <row r="183" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A183" s="10"/>
+      <c r="B183" s="10"/>
+      <c r="D183" s="12"/>
+      <c r="E183" s="12"/>
+      <c r="F183" s="12"/>
+      <c r="I183" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="D134" s="1" t="s">
+    </row>
+    <row r="184" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A184" s="10"/>
+      <c r="B184" s="10"/>
+      <c r="D184" s="12"/>
+      <c r="E184" s="12"/>
+      <c r="F184" s="12"/>
+      <c r="I184" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="I134" s="2" t="s">
+    </row>
+    <row r="185" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A185" s="10"/>
+      <c r="B185" s="10"/>
+      <c r="D185" s="12"/>
+      <c r="E185" s="12"/>
+      <c r="F185" s="12"/>
+      <c r="I185" s="2" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A135" s="11"/>
-      <c r="B135" s="11"/>
-      <c r="C135" s="12" t="s">
+    <row r="186" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A186" s="20"/>
+      <c r="B186" s="20"/>
+      <c r="D186" s="12"/>
+      <c r="E186" s="12"/>
+      <c r="F186" s="12"/>
+      <c r="I186" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="D135" s="1" t="s">
+    </row>
+    <row r="187" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A187" s="10"/>
+      <c r="B187" s="10"/>
+      <c r="D187" s="12"/>
+      <c r="E187" s="12"/>
+      <c r="F187" s="12"/>
+      <c r="I187" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="I135" s="2" t="s">
+    </row>
+    <row r="188" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A188" s="10"/>
+      <c r="B188" s="10"/>
+      <c r="D188" s="12"/>
+      <c r="E188" s="12"/>
+      <c r="F188" s="12"/>
+      <c r="I188" s="2" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A136" s="21"/>
-      <c r="B136" s="21"/>
-      <c r="C136" s="12" t="s">
+    <row r="189" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A189" s="10"/>
+      <c r="B189" s="10"/>
+      <c r="D189" s="12"/>
+      <c r="E189" s="12"/>
+      <c r="F189" s="12"/>
+      <c r="I189" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="D136" s="1" t="s">
+    </row>
+    <row r="190" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A190" s="10"/>
+      <c r="B190" s="10"/>
+      <c r="D190" s="12"/>
+      <c r="E190" s="12"/>
+      <c r="F190" s="12"/>
+      <c r="I190" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="I136" s="2" t="s">
+    </row>
+    <row r="191" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A191" s="20"/>
+      <c r="B191" s="20"/>
+      <c r="D191" s="12"/>
+      <c r="E191" s="12"/>
+      <c r="F191" s="12"/>
+      <c r="I191" s="2" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A137" s="11"/>
-      <c r="B137" s="11"/>
-      <c r="C137" s="12" t="s">
+    <row r="192" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A192" s="10"/>
+      <c r="B192" s="10"/>
+      <c r="D192" s="12"/>
+      <c r="E192" s="12"/>
+      <c r="F192" s="12"/>
+      <c r="I192" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="D137" s="1" t="s">
+    </row>
+    <row r="193" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A193" s="10"/>
+      <c r="B193" s="10"/>
+      <c r="D193" s="12"/>
+      <c r="E193" s="12"/>
+      <c r="F193" s="12"/>
+      <c r="I193" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="I137" s="2" t="s">
+    </row>
+    <row r="194" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A194" s="20"/>
+      <c r="B194" s="20"/>
+      <c r="D194" s="12"/>
+      <c r="E194" s="12"/>
+      <c r="F194" s="12"/>
+      <c r="I194" s="2" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A138" s="21"/>
-      <c r="B138" s="21"/>
-      <c r="C138" s="12" t="s">
+    <row r="195" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A195" s="10"/>
+      <c r="B195" s="10"/>
+      <c r="D195" s="12"/>
+      <c r="E195" s="12"/>
+      <c r="F195" s="12"/>
+      <c r="I195" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="D138" s="1" t="s">
+    </row>
+    <row r="196" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A196" s="10"/>
+      <c r="B196" s="10"/>
+      <c r="D196" s="12"/>
+      <c r="E196" s="12"/>
+      <c r="F196" s="12"/>
+      <c r="I196" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="I138" s="2" t="s">
+    </row>
+    <row r="197" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A197" s="10"/>
+      <c r="B197" s="10"/>
+      <c r="D197" s="12"/>
+      <c r="E197" s="12"/>
+      <c r="F197" s="12"/>
+      <c r="I197" s="2" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A139" s="11"/>
-      <c r="B139" s="11"/>
-      <c r="C139" s="12" t="s">
+    <row r="198" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A198" s="10"/>
+      <c r="B198" s="10"/>
+      <c r="D198" s="12"/>
+      <c r="E198" s="12"/>
+      <c r="F198" s="12"/>
+      <c r="I198" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="D139" s="1" t="s">
+    </row>
+    <row r="199" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A199" s="10"/>
+      <c r="B199" s="10"/>
+      <c r="D199" s="12"/>
+      <c r="E199" s="12"/>
+      <c r="F199" s="12"/>
+      <c r="I199" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="I139" s="2" t="s">
+    </row>
+    <row r="200" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A200" s="10"/>
+      <c r="B200" s="10"/>
+      <c r="D200" s="12"/>
+      <c r="E200" s="12"/>
+      <c r="F200" s="12"/>
+      <c r="I200" s="2" t="s">
         <v>586</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A140" s="21"/>
-      <c r="B140" s="21"/>
-      <c r="C140" s="12" t="s">
-        <v>587</v>
-      </c>
-      <c r="D140" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="I140" s="2" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A141" s="21"/>
-      <c r="B141" s="21"/>
-      <c r="C141" s="12" t="s">
-        <v>590</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="I141" s="2" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A142" s="11"/>
-      <c r="B142" s="11"/>
-      <c r="C142" s="12" t="s">
-        <v>593</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="I142" s="2" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A143" s="11"/>
-      <c r="B143" s="11"/>
-      <c r="D143" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="I143" s="2" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="144" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A144" s="11"/>
-      <c r="B144" s="11"/>
-      <c r="D144" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="I144" s="2" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="145" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A145" s="21"/>
-      <c r="B145" s="21"/>
-      <c r="D145" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="I145" s="2" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A146" s="21"/>
-      <c r="B146" s="21"/>
-      <c r="D146" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="I146" s="2" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A147" s="11"/>
-      <c r="B147" s="11"/>
-      <c r="D147" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="I147" s="2" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="148" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A148" s="11"/>
-      <c r="B148" s="11"/>
-      <c r="D148" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="I148" s="2" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="149" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A149" s="21"/>
-      <c r="B149" s="21"/>
-      <c r="D149" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="I149" s="2" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="150" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A150" s="11"/>
-      <c r="B150" s="11"/>
-      <c r="D150" s="13"/>
-      <c r="E150" s="13"/>
-      <c r="F150" s="13"/>
-      <c r="I150" s="2" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="151" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A151" s="11"/>
-      <c r="B151" s="11"/>
-      <c r="D151" s="13"/>
-      <c r="E151" s="13"/>
-      <c r="F151" s="13"/>
-      <c r="I151" s="2" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="152" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A152" s="21"/>
-      <c r="B152" s="21"/>
-      <c r="D152" s="13"/>
-      <c r="E152" s="13"/>
-      <c r="F152" s="13"/>
-      <c r="I152" s="2" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="153" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A153" s="21"/>
-      <c r="B153" s="21"/>
-      <c r="D153" s="13"/>
-      <c r="E153" s="13"/>
-      <c r="F153" s="13"/>
-      <c r="I153" s="2" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="154" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A154" s="11"/>
-      <c r="B154" s="11"/>
-      <c r="D154" s="13"/>
-      <c r="E154" s="13"/>
-      <c r="F154" s="13"/>
-      <c r="I154" s="2" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="155" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A155" s="21"/>
-      <c r="B155" s="21"/>
-      <c r="D155" s="13"/>
-      <c r="E155" s="13"/>
-      <c r="F155" s="13"/>
-      <c r="I155" s="2" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="156" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A156" s="11"/>
-      <c r="B156" s="11"/>
-      <c r="D156" s="13"/>
-      <c r="E156" s="13"/>
-      <c r="F156" s="13"/>
-      <c r="I156" s="2" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A157" s="11"/>
-      <c r="B157" s="11"/>
-      <c r="D157" s="13"/>
-      <c r="E157" s="13"/>
-      <c r="F157" s="13"/>
-      <c r="I157" s="2" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="158" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A158" s="21"/>
-      <c r="B158" s="21"/>
-      <c r="D158" s="13"/>
-      <c r="E158" s="13"/>
-      <c r="F158" s="13"/>
-      <c r="I158" s="2" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="159" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A159" s="21"/>
-      <c r="B159" s="21"/>
-      <c r="D159" s="13"/>
-      <c r="E159" s="13"/>
-      <c r="F159" s="13"/>
-      <c r="I159" s="2" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="160" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A160" s="11"/>
-      <c r="B160" s="11"/>
-      <c r="D160" s="13"/>
-      <c r="E160" s="13"/>
-      <c r="F160" s="13"/>
-      <c r="I160" s="2" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="161" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A161" s="21"/>
-      <c r="B161" s="21"/>
-      <c r="D161" s="13"/>
-      <c r="E161" s="13"/>
-      <c r="F161" s="13"/>
-      <c r="I161" s="2" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="162" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A162" s="11"/>
-      <c r="B162" s="11"/>
-      <c r="D162" s="13"/>
-      <c r="E162" s="13"/>
-      <c r="F162" s="13"/>
-      <c r="I162" s="2" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="163" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A163" s="21"/>
-      <c r="B163" s="21"/>
-      <c r="D163" s="13"/>
-      <c r="E163" s="13"/>
-      <c r="F163" s="13"/>
-      <c r="I163" s="2" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="164" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A164" s="11"/>
-      <c r="B164" s="11"/>
-      <c r="D164" s="13"/>
-      <c r="E164" s="13"/>
-      <c r="F164" s="13"/>
-      <c r="I164" s="2" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="165" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A165" s="21"/>
-      <c r="B165" s="21"/>
-      <c r="D165" s="13"/>
-      <c r="E165" s="13"/>
-      <c r="F165" s="13"/>
-      <c r="I165" s="2" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="166" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A166" s="11"/>
-      <c r="B166" s="11"/>
-      <c r="D166" s="13"/>
-      <c r="E166" s="13"/>
-      <c r="F166" s="13"/>
-      <c r="I166" s="2" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="167" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A167" s="11"/>
-      <c r="B167" s="11"/>
-      <c r="D167" s="13"/>
-      <c r="E167" s="13"/>
-      <c r="F167" s="13"/>
-      <c r="I167" s="2" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="168" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A168" s="11"/>
-      <c r="B168" s="11"/>
-      <c r="D168" s="13"/>
-      <c r="E168" s="13"/>
-      <c r="F168" s="13"/>
-      <c r="I168" s="2" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="169" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A169" s="11"/>
-      <c r="B169" s="11"/>
-      <c r="D169" s="13"/>
-      <c r="E169" s="13"/>
-      <c r="F169" s="13"/>
-      <c r="I169" s="2" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="170" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A170" s="11"/>
-      <c r="B170" s="11"/>
-      <c r="D170" s="13"/>
-      <c r="E170" s="13"/>
-      <c r="F170" s="13"/>
-      <c r="I170" s="2" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="171" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A171" s="21"/>
-      <c r="B171" s="21"/>
-      <c r="D171" s="13"/>
-      <c r="E171" s="13"/>
-      <c r="F171" s="13"/>
-      <c r="I171" s="2" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="172" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A172" s="11"/>
-      <c r="B172" s="11"/>
-      <c r="D172" s="13"/>
-      <c r="E172" s="13"/>
-      <c r="F172" s="13"/>
-      <c r="I172" s="2" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="173" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A173" s="21"/>
-      <c r="B173" s="21"/>
-      <c r="D173" s="13"/>
-      <c r="E173" s="13"/>
-      <c r="F173" s="13"/>
-      <c r="I173" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="174" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A174" s="11"/>
-      <c r="B174" s="11"/>
-      <c r="D174" s="13"/>
-      <c r="E174" s="13"/>
-      <c r="F174" s="13"/>
-      <c r="I174" s="2" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="175" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A175" s="21"/>
-      <c r="B175" s="21"/>
-      <c r="D175" s="13"/>
-      <c r="E175" s="13"/>
-      <c r="F175" s="13"/>
-      <c r="I175" s="2" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="176" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A176" s="11"/>
-      <c r="B176" s="11"/>
-      <c r="D176" s="13"/>
-      <c r="E176" s="13"/>
-      <c r="F176" s="13"/>
-      <c r="I176" s="2" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="177" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A177" s="21"/>
-      <c r="B177" s="21"/>
-      <c r="D177" s="13"/>
-      <c r="E177" s="13"/>
-      <c r="F177" s="13"/>
-      <c r="I177" s="2" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="178" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A178" s="11"/>
-      <c r="B178" s="11"/>
-      <c r="D178" s="13"/>
-      <c r="E178" s="13"/>
-      <c r="F178" s="13"/>
-      <c r="I178" s="2" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="179" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A179" s="11"/>
-      <c r="B179" s="11"/>
-      <c r="D179" s="13"/>
-      <c r="E179" s="13"/>
-      <c r="F179" s="13"/>
-      <c r="I179" s="2" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="180" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A180" s="11"/>
-      <c r="B180" s="11"/>
-      <c r="D180" s="13"/>
-      <c r="E180" s="13"/>
-      <c r="F180" s="13"/>
-      <c r="I180" s="2" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="181" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A181" s="11"/>
-      <c r="B181" s="11"/>
-      <c r="D181" s="13"/>
-      <c r="E181" s="13"/>
-      <c r="F181" s="13"/>
-      <c r="I181" s="2" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="182" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A182" s="21"/>
-      <c r="B182" s="21"/>
-      <c r="D182" s="13"/>
-      <c r="E182" s="13"/>
-      <c r="F182" s="13"/>
-      <c r="I182" s="2" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="183" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A183" s="11"/>
-      <c r="B183" s="11"/>
-      <c r="D183" s="13"/>
-      <c r="E183" s="13"/>
-      <c r="F183" s="13"/>
-      <c r="I183" s="2" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="184" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A184" s="11"/>
-      <c r="B184" s="11"/>
-      <c r="D184" s="13"/>
-      <c r="E184" s="13"/>
-      <c r="F184" s="13"/>
-      <c r="I184" s="2" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="185" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A185" s="11"/>
-      <c r="B185" s="11"/>
-      <c r="D185" s="13"/>
-      <c r="E185" s="13"/>
-      <c r="F185" s="13"/>
-      <c r="I185" s="2" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="186" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A186" s="21"/>
-      <c r="B186" s="21"/>
-      <c r="D186" s="13"/>
-      <c r="E186" s="13"/>
-      <c r="F186" s="13"/>
-      <c r="I186" s="2" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="187" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A187" s="11"/>
-      <c r="B187" s="11"/>
-      <c r="D187" s="13"/>
-      <c r="E187" s="13"/>
-      <c r="F187" s="13"/>
-      <c r="I187" s="2" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="188" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A188" s="11"/>
-      <c r="B188" s="11"/>
-      <c r="D188" s="13"/>
-      <c r="E188" s="13"/>
-      <c r="F188" s="13"/>
-      <c r="I188" s="2" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="189" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A189" s="11"/>
-      <c r="B189" s="11"/>
-      <c r="D189" s="13"/>
-      <c r="E189" s="13"/>
-      <c r="F189" s="13"/>
-      <c r="I189" s="2" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="190" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A190" s="11"/>
-      <c r="B190" s="11"/>
-      <c r="D190" s="13"/>
-      <c r="E190" s="13"/>
-      <c r="F190" s="13"/>
-      <c r="I190" s="2" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="191" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A191" s="21"/>
-      <c r="B191" s="21"/>
-      <c r="D191" s="13"/>
-      <c r="E191" s="13"/>
-      <c r="F191" s="13"/>
-      <c r="I191" s="2" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="192" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A192" s="11"/>
-      <c r="B192" s="11"/>
-      <c r="D192" s="13"/>
-      <c r="E192" s="13"/>
-      <c r="F192" s="13"/>
-      <c r="I192" s="2" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="193" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A193" s="11"/>
-      <c r="B193" s="11"/>
-      <c r="D193" s="13"/>
-      <c r="E193" s="13"/>
-      <c r="F193" s="13"/>
-      <c r="I193" s="2" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="194" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A194" s="21"/>
-      <c r="B194" s="21"/>
-      <c r="D194" s="13"/>
-      <c r="E194" s="13"/>
-      <c r="F194" s="13"/>
-      <c r="I194" s="2" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="195" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A195" s="11"/>
-      <c r="B195" s="11"/>
-      <c r="D195" s="13"/>
-      <c r="E195" s="13"/>
-      <c r="F195" s="13"/>
-      <c r="I195" s="2" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="196" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A196" s="11"/>
-      <c r="B196" s="11"/>
-      <c r="D196" s="13"/>
-      <c r="E196" s="13"/>
-      <c r="F196" s="13"/>
-      <c r="I196" s="2" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="197" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A197" s="11"/>
-      <c r="B197" s="11"/>
-      <c r="D197" s="13"/>
-      <c r="E197" s="13"/>
-      <c r="F197" s="13"/>
-      <c r="I197" s="2" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="198" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A198" s="11"/>
-      <c r="B198" s="11"/>
-      <c r="D198" s="13"/>
-      <c r="E198" s="13"/>
-      <c r="F198" s="13"/>
-      <c r="I198" s="2" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="199" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A199" s="11"/>
-      <c r="B199" s="11"/>
-      <c r="D199" s="13"/>
-      <c r="E199" s="13"/>
-      <c r="F199" s="13"/>
-      <c r="I199" s="2" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="200" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A200" s="11"/>
-      <c r="B200" s="11"/>
-      <c r="D200" s="13"/>
-      <c r="E200" s="13"/>
-      <c r="F200" s="13"/>
-      <c r="I200" s="2" t="s">
-        <v>660</v>
       </c>
     </row>
   </sheetData>

--- a/scripts_on_ubuntu/Alchemy/week 2/week 2.xlsx
+++ b/scripts_on_ubuntu/Alchemy/week 2/week 2.xlsx
@@ -5962,7 +5962,11 @@
           <t>(45QwjD#i%</t>
         </is>
       </c>
-      <c r="E190" s="43" t="n"/>
+      <c r="E190" s="43" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="I190" s="24" t="inlineStr">
         <is>
           <t>ipfs://QmW3V4YBsdbQhEhLDw3JAcUNpAzDfqgNjmigUnuG6FBNT3</t>
